--- a/similarities/split_global/harmonic_similarity_timestamps_220.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_220.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,506 +484,548 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>schubert-winterreise_142</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:maj/B', 'C:maj', 'G:maj/D']]</t>
+          <t>['A#:min/F', 'F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:01:02.200000', '0:01:04.400000')]</t>
+          <t>('0:00:01.920000', '0:00:07.380000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:07.140000', '0:01:10.820000')]</t>
+          <t>('0:00:41.080000', '0:00:43.340000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=62.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-142#t=1.92</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=41.08</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_18</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_50</t>
+          <t>isophonics_0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>['F:maj', 'F:7', 'A#:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G']]</t>
+          <t>['Db', 'Db:7', 'Gb']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:55.680000', '0:01:02.280000')]</t>
+          <t>('0:00:19.500000', '0:00:30.320000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:37.936167', '0:00:42.951678')]</t>
+          <t>('0:00:22.947687', '0:00:32.374988')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=55.68']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-18#t=19.5</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=37.936167']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-0#t=22.947687</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_10</t>
+          <t>isophonics_114</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_27</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['E:min', 'G', 'D/3']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'F', 'C']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:02:53.535000', '0:03:00.310000')]</t>
+          <t>('0:00:06.726778', '0:00:13.147096')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:36.380430', '0:00:51.717210')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-10#t=173.535']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-114#t=6.726778</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-27#t=36.38043']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_198</t>
+          <t>schubert-winterreise_98</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_114</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:16.560000', '0:00:45.260000')]</t>
+          <t>('0:00:43.880000', '0:00:48.020000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:01:08.980000', '0:01:27.200000')]</t>
+          <t>('0:01:25.580000', '0:01:34.240000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-198#t=16.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-98#t=43.88</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=68.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-114#t=85.58</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_193</t>
+          <t>schubert-winterreise_3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Cb', 'Gb:7', 'Cb']]</t>
+          <t>['C#:maj', 'G#:maj', 'C#:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:03.820000', '0:01:08.260000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:46.759000', '0:00:50.551000')]</t>
+          <t>('0:00:09.060000', '0:00:10.780000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=63.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-193#t=46.759']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-3#t=9.06</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>isophonics_155</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_276</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db/5', 'Ab', 'Db', 'Ab', 'Db/5']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['E', 'A', 'E', 'A', 'E', 'A', 'E', 'A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:46.560000', '0:00:49.080000')]</t>
+          <t>('0:04:21.828000', '0:04:49.808000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:09.738333', '0:00:15.380782')]</t>
+          <t>('0:00:08.413696', '0:00:18.293786')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-171#t=46.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-155#t=261.828</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-276#t=9.738333']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_196</t>
+          <t>schubert-winterreise_173</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_177</t>
+          <t>schubert-winterreise_109</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D:7', 'G/5', 'G:min/5', 'D']]</t>
+          <t>['G:min', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['A:7', 'D:maj/A', 'D:min/A', 'A:maj']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:01:23.505328', '0:01:33.397029')]</t>
+          <t>('0:00:02.580000', '0:00:07.080000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:00:03.100000', '0:00:13.500000')]</t>
+          <t>('0:00:01.540000', '0:00:06.880000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-196#t=83.505328']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-173#t=2.58</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-177#t=3.1']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-109#t=1.54</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_37</t>
+          <t>isophonics_34</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_44</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C']]</t>
+          <t>['Eb/5', 'Ab', 'Eb/3', 'F:min']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['A#:min/F', 'F', 'A#:min']]</t>
+          <t>['F:maj', 'A#:maj/F', 'F:maj', 'G:min/A#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:45.580000', '0:00:49.600000')]</t>
+          <t>('0:01:26.923922', '0:01:33.181700')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:13.360000', '0:00:20.940000')]</t>
+          <t>('0:00:17.340000', '0:00:25.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-37#t=45.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-34#t=86.923922</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=13.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=17.34</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_26</t>
+          <t>schubert-winterreise_138</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['D:min', 'A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'D', 'A']]</t>
+          <t>['C:min/D#', 'G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:04.920000', '0:02:09.880000')]</t>
+          <t>('0:00:16.720000', '0:00:26.460000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.599751', '0:00:08.760294')]</t>
+          <t>('0:00:41.300000', '0:00:43.480000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=16.72</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=41.3</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr"/>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_84</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_280</t>
+          <t>schubert-winterreise_154</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['E', 'B:7', 'E', 'B:7', 'E']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:01.460000', '0:00:11.260000')]</t>
+          <t>('0:01:04.080000', '0:01:13.880000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:01.683832', '0:01:11.056785')]</t>
+          <t>('0:00:21.780000', '0:00:25.300000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.08</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=61.683832']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-154#t=21.78</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_111</t>
+          <t>schubert-winterreise_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:min', 'D:7', 'G:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:40.080000', '0:00:42.280000')]</t>
+          <t>('0:01:08.640000', '0:01:23.840000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:17.860000', '0:00:28.300000')]</t>
+          <t>('0:00:19.140000', '0:00:28.440000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-111#t=40.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=68.64</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=17.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-1#t=19.14</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -993,197 +1035,195 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>schubert-winterreise_158</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
+          <t>('0:01:15.520000', '0:01:19.700000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_82</t>
+          <t>jaah_30</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_40</t>
+          <t>isophonics_108</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb', 'F', 'Bb']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
+          <t>['A', 'E', 'A']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:03.101913', '0:00:07.754783')]</t>
+          <t>('0:00:00.460000', '0:00:05.060000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+          <t>('0:00:19.000294', '0:00:29.309954')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-82#t=3.101913']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-30#t=0.46</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:5EzvwjFwdP5Kfl5AZAemzu</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=19.000294</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_191</t>
+          <t>schubert-winterreise_180</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_38</t>
+          <t>schubert-winterreise_44</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G:min', 'D:7/G', 'G:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D#:min/A#', 'A#', 'D#:min/A#']]</t>
+          <t>['A#:min/F', 'F:7', 'A#:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:13.080000', '0:00:19.340000')]</t>
+          <t>('0:00:12.060000', '0:00:17.060000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:53.940000')]</t>
+          <t>('0:00:24.680000', '0:00:31.240000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-191#t=13.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-180#t=12.06</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-38#t=49.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-44#t=24.68</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_95</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_144</t>
+          <t>schubert-winterreise_117</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:maj', 'F:min'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>['C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min'], ['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:01.540000', '0:00:06.680000'), ('0:00:09.780000', '0:00:14.360000')]</t>
+          <t>('0:03:46.620000', '0:03:52.800000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:00.860000', '0:00:05.140000'), ('0:01:58.180000', '0:02:03.040000')]</t>
+          <t>('0:00:07.160000', '0:00:15.080000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=1.54', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=9.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-95#t=226.62</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=0.86', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-144#t=118.18']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
